--- a/data/trans_camb/P16B03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-23,88</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,68</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-75,0; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,3; 42,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,58; 21,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,09; 28,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,07; 20,49</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,01%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-75,0; 0,0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 74,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,82; 29,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,43; 41,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,73; 27,03</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,24</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,96; 48,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,87; 15,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,3; 9,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,8; 9,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,08; 9,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,02; 3,95</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,36%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,97; 121,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 65,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,16; 10,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,4; 9,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,18; 10,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,73; 3,62</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,67</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,72</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,89; 51,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,31; 40,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,88; 36,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 36,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,36; 42,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 36,75</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,45%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 206,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 169,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,98; 58,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 59,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,36; 83,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 69,7</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,9; 58,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,65; 50,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,87; 34,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,87; 26,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,78; 31,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,39; 22,24</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,03%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,61; 141,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,5; 139,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,07; 59,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,61; 41,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,26; 51,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,41; 34,77</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,88</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,55; 16,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,88; 17,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,9; 14,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 15,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,81; 9,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,1; 10,47</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,88%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 20,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,42; 20,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,89; 17,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,37; 17,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,73; 11,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,76; 11,94</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,08</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,69</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,73; 34,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,16; 29,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 7,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,16; 3,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 13,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,55; 10,05</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,08; 52,56</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; 46,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,53; 8,49</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,04; 3,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 15,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,36; 11,63</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 21,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; 16,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 10,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 5,5</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 11,62</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 5,82</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,62; 30,47</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,88; 23,64</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 12,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; 6,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 14,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 7,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>17,08</t>
+          <t>13,63</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-12,05</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-8,87</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,73; 34,46</t>
+          <t>0,0; 42,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 29,96</t>
+          <t>-35,15; 27,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 7,77</t>
+          <t>-13,26; 13,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 3,36</t>
+          <t>-33,32; 5,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 13,31</t>
+          <t>-6,45; 14,86</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 10,05</t>
+          <t>-27,45; 5,67</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>-13,11%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-9,8%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6,08; 52,56</t>
+          <t>0,0; 73,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 46,31</t>
+          <t>-40,65; 38,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 8,49</t>
+          <t>-14,03; 15,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 3,6</t>
+          <t>-37,26; 6,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 15,75</t>
+          <t>-6,85; 17,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 11,63</t>
+          <t>-30,41; 6,34</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>19,53</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>19,53</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>8,44</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 21,01</t>
+          <t>4,85; 48,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 16,68</t>
+          <t>5,13; 46,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 10,24</t>
+          <t>-9,77; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 5,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,37; 11,62</t>
+          <t>-1,73; 19,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 5,82</t>
+          <t>2,25; 23,82</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>9,22%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>5,1; 92,08</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 86,41</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 0,0</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 24,92</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 31,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,77</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>5,84</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; 21,01</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-18,1; 16,68</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 10,24</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 5,5</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 11,62</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-7,7; 5,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-1,68%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-1,4%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-0,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-15,62; 30,47</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-21,88; 23,64</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-0,96; 12,08</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-8,91; 6,43</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>0,44; 14,34</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-8,88; 7,01</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Edad-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 42,77</t>
+          <t>5,14; 40,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 21,34</t>
+          <t>-36,15; 21,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 28,22</t>
+          <t>-15,79; 26,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,07; 20,49</t>
+          <t>-36,75; 15,66</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 74,7</t>
+          <t>5,42; 67,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 29,78</t>
+          <t>-40,2; 30,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 41,9</t>
+          <t>-16,84; 39,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 27,03</t>
+          <t>-40,25; 19,54</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-57,96; 48,92</t>
+          <t>-57,76; 49,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-83,87; 15,53</t>
+          <t>-84,19; 31,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 9,77</t>
+          <t>-20,6; 8,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 9,17</t>
+          <t>-27,86; 10,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 9,09</t>
+          <t>-23,27; 9,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 3,95</t>
+          <t>-41,65; 1,4</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,97; 121,45</t>
+          <t>-66,58; 133,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 65,86</t>
+          <t>-100,0; 95,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 10,55</t>
+          <t>-21,46; 9,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,4; 9,8</t>
+          <t>-30,88; 10,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 10,22</t>
+          <t>-24,89; 11,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 3,62</t>
+          <t>-45,33; 1,11</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-56,89; 51,21</t>
+          <t>-56,04; 47,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-67,31; 40,64</t>
+          <t>-67,66; 42,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 36,91</t>
+          <t>1,19; 36,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 36,64</t>
+          <t>-0,64; 37,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 42,61</t>
+          <t>5,81; 40,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 36,75</t>
+          <t>-3,63; 37,56</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 206,03</t>
+          <t>-100,0; 184,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 169,2</t>
+          <t>-100,0; 204,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 58,88</t>
+          <t>1,09; 57,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 59,68</t>
+          <t>-0,66; 59,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,36; 83,99</t>
+          <t>6,79; 75,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 69,7</t>
+          <t>-4,19; 69,1</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-43,9; 58,38</t>
+          <t>-47,82; 50,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-44,65; 50,35</t>
+          <t>-54,55; 51,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 34,68</t>
+          <t>-13,05; 32,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 26,25</t>
+          <t>-28,99; 22,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 31,87</t>
+          <t>-12,2; 32,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 22,24</t>
+          <t>-22,11; 20,41</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,61; 141,79</t>
+          <t>-60,76; 134,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,5; 139,96</t>
+          <t>-56,63; 140,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 59,19</t>
+          <t>-14,1; 53,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 41,93</t>
+          <t>-33,04; 36,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 51,12</t>
+          <t>-13,13; 55,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 34,77</t>
+          <t>-26,24; 34,14</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-97,55; 16,82</t>
+          <t>-92,97; 16,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 17,48</t>
+          <t>-51,85; 16,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 14,51</t>
+          <t>-15,5; 11,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 15,03</t>
+          <t>-13,46; 15,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 9,85</t>
+          <t>-17,13; 10,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 10,47</t>
+          <t>-16,74; 11,89</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 20,13</t>
+          <t>-100,0; 19,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,42; 20,99</t>
+          <t>-52,22; 19,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 17,47</t>
+          <t>-16,22; 14,34</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 17,66</t>
+          <t>-14,0; 17,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 11,25</t>
+          <t>-18,07; 11,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 11,94</t>
+          <t>-17,78; 13,75</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,58</t>
+          <t>0,0; 39,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 27,45</t>
+          <t>-34,75; 24,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 13,26</t>
+          <t>-14,48; 12,5</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 5,82</t>
+          <t>-34,89; 3,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 14,86</t>
+          <t>-6,44; 14,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 5,67</t>
+          <t>-28,7; 6,27</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,92</t>
+          <t>0,0; 64,11</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-40,65; 38,52</t>
+          <t>-37,61; 36,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 15,31</t>
+          <t>-14,85; 14,93</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-37,26; 6,12</t>
+          <t>-38,16; 4,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 17,87</t>
+          <t>-6,71; 17,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 6,34</t>
+          <t>-30,64; 7,23</t>
         </is>
       </c>
     </row>
@@ -1575,17 +1575,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,85; 48,02</t>
+          <t>5,28; 48,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,13; 46,37</t>
+          <t>5,2; 50,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 0,0</t>
+          <t>-12,09; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 19,51</t>
+          <t>-1,65; 19,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,25; 23,82</t>
+          <t>2,24; 22,84</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>5,1; 92,08</t>
+          <t>5,53; 94,69</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>5,39; 86,41</t>
+          <t>5,47; 99,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 0,0</t>
+          <t>-12,09; 0,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 24,92</t>
+          <t>-1,68; 25,04</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,3; 31,26</t>
+          <t>2,29; 29,5</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 21,01</t>
+          <t>-16,15; 19,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 16,68</t>
+          <t>-19,19; 15,21</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 10,24</t>
+          <t>-1,46; 10,26</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 5,5</t>
+          <t>-7,91; 5,71</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,37; 11,62</t>
+          <t>0,49; 12,2</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 5,82</t>
+          <t>-7,49; 5,91</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 30,47</t>
+          <t>-19,19; 27,63</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 23,64</t>
+          <t>-23,65; 22,29</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 12,08</t>
+          <t>-1,43; 12,04</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 6,43</t>
+          <t>-8,65; 6,65</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,44; 14,34</t>
+          <t>0,55; 15,07</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 7,01</t>
+          <t>-8,49; 7,17</t>
         </is>
       </c>
     </row>
